--- a/data/trans_bre/P16B99-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B99-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
